--- a/FYP phase 1 分工.xlsx
+++ b/FYP phase 1 分工.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\FYPMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C842DC-5225-4991-80D6-CC859C14EDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3CEA69-C7EA-45B8-B67A-8FA695AEA528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{9B108708-2A4B-472A-8D96-7FDF5F58F78D}"/>
   </bookViews>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -228,6 +228,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -544,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0391F70D-23CB-433A-B6FA-0741B800E3ED}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,7 +555,7 @@
     <col min="2" max="2" width="9" style="7"/>
     <col min="3" max="3" width="9" style="5"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="9" style="9"/>
+    <col min="5" max="5" width="12.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -833,7 +834,9 @@
       <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="10">
+        <v>43908</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -846,7 +849,9 @@
       <c r="D30" s="4">
         <v>0.5</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="10">
+        <v>43908</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">

--- a/FYP phase 1 分工.xlsx
+++ b/FYP phase 1 分工.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\FYPMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3CEA69-C7EA-45B8-B67A-8FA695AEA528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A2B80-9AAC-4D84-B42B-B6D9855D68CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{9B108708-2A4B-472A-8D96-7FDF5F58F78D}"/>
   </bookViews>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0391F70D-23CB-433A-B6FA-0741B800E3ED}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,9 @@
       <c r="D2" s="4">
         <v>0.5</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10">
+        <v>43909</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/FYP phase 1 分工.xlsx
+++ b/FYP phase 1 分工.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\FYPMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A2B80-9AAC-4D84-B42B-B6D9855D68CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70223FB3-11BC-420F-906D-E9775C640503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{9B108708-2A4B-472A-8D96-7FDF5F58F78D}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,9 @@
       <c r="D5" s="4">
         <v>0.5</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10">
+        <v>43909</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -650,7 +652,9 @@
       <c r="D7" s="4">
         <v>0.5</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10">
+        <v>43911</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">

--- a/FYP phase 1 分工.xlsx
+++ b/FYP phase 1 分工.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\FYPMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70223FB3-11BC-420F-906D-E9775C640503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75CFC3-DFCE-4470-9E5F-9DEC4B357F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{9B108708-2A4B-472A-8D96-7FDF5F58F78D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -546,7 +547,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,7 +599,7 @@
       <c r="D3" s="4">
         <v>0.5</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -639,7 +640,9 @@
       <c r="D6" s="4">
         <v>0.75</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10">
+        <v>43917</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -760,7 +763,9 @@
       <c r="D20" s="4">
         <v>0.5</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="10">
+        <v>43912</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -773,7 +778,9 @@
       <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="10">
+        <v>43915</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">

--- a/FYP phase 1 分工.xlsx
+++ b/FYP phase 1 分工.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\FYPMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75CFC3-DFCE-4470-9E5F-9DEC4B357F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9AD565-84C6-4838-A29E-ABE2865F8050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{9B108708-2A4B-472A-8D96-7FDF5F58F78D}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,9 @@
       <c r="D3" s="4">
         <v>0.5</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10">
+        <v>43918</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -683,7 +685,9 @@
       <c r="D9" s="4">
         <v>0.75</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10">
+        <v>43918</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -819,7 +823,9 @@
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="10">
+        <v>43918</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
